--- a/Proyectos/2015/12/P1404 - RNCFAC, Alfredo Martinez_MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1404 - RNCFAC, Alfredo Martinez_MO/Calidad/No_conformidades.xlsx
@@ -47,7 +47,7 @@
     <t>Oriana Osiris</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>Plan de proyecto agregar fecha de cierre</t>
@@ -307,7 +307,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,7 +390,9 @@
       <c r="D5" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42474</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
@@ -409,7 +411,9 @@
       <c r="D6" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>42474</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -430,7 +434,9 @@
       <c r="D7" s="5" t="n">
         <v>42375</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>42474</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
@@ -460,7 +466,9 @@
       <c r="D9" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="n">
+        <v>42474</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
@@ -479,7 +487,9 @@
       <c r="D10" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="n">
+        <v>42474</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
